--- a/weeklyreport/Xueyi.Chen-FW-Weekly-WK23.xlsx
+++ b/weeklyreport/Xueyi.Chen-FW-Weekly-WK23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>project stage</t>
   </si>
@@ -189,6 +189,184 @@
       <t xml:space="preserve">
 </t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(May.25 to May.29)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2k15 EU Android
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mooplayer  OMX  debug and EXOplayer study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mooplayer OMX debug and EXOplayer study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. Debug [TF515PHIALLMTK01-16235(360852)] 
+[CB] Most of the time ANR(media is not responding) is seen during CB playback and after that file cannot be read OSD is seen for any file playback. 
+[Root Cause]
+In the multi-time playback,when  end the playback of TS file,the vdec resource isn't release!
+[Solution]
+Has passed to the team of tsplayer to solve the issue.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[100%]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2.Debug [TF515PHIALLMTK01-16093(359803)] 
+[U+] Most of the time target crashes for the video playback. 
+[Root Cause]
+According the log , it find that the audio compnent not shutdown in the previous playback .
+[Status]
+Wait for the available U+ device to analyze in the furture. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[40%]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Write the outline about ExoPlayer Library.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[100%]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.Learn the interface of ExoPlayer for ContextExplorer.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[20%-40%]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xueyi.Chen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On schedule 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">implement and debug(With Schedule)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">implement and dubug
+( next  Week )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -678,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -700,43 +878,43 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" thickBot="1">
       <c r="A1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -762,33 +940,127 @@
     </row>
     <row r="4" spans="1:10" ht="409.5" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="409.5" customHeight="1" thickBot="1">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
